--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1297.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1297.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9297894685500875</v>
+        <v>1.118598818778992</v>
       </c>
       <c r="B1">
-        <v>2.125095677363859</v>
+        <v>2.262534618377686</v>
       </c>
       <c r="C1">
-        <v>5.710243355436166</v>
+        <v>10.79081344604492</v>
       </c>
       <c r="D1">
-        <v>2.495429738166357</v>
+        <v>1.752775907516479</v>
       </c>
       <c r="E1">
-        <v>1.330452731399978</v>
+        <v>1.289687871932983</v>
       </c>
     </row>
   </sheetData>
